--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.9.xlsm 2018-08-14 16-29-55/Final/6.9_Step2_Initial.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.9.xlsm 2018-08-14 16-29-55/Final/6.9_Step2_Initial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu Aggarwal\Desktop\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Content-Cosmatt\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.9.xlsm 2018-08-14 16-29-55\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44956C34-D372-4E4E-803D-4E6438EE0B9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="6.9_Step1_Initial" sheetId="1" r:id="rId1"/>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -128,6 +127,7 @@
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -511,18 +511,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
